--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2211289.468205551</v>
+        <v>-2213737.701284604</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>16.41010763696638</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>22.40068379106287</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.0863989941059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.217718163197301</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.8939792152981</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>150.4889483842662</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>192.0776352658869</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>394.9680773239724</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.8865837051447</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.8854510154498</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>376.0104255847223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>97.7666467555493</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>29.41204342723536</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>133.5774755435148</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229297</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.4478746889087</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>128.5608199181116</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>47.59990604631701</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>107.7319894375262</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>204.1149264341222</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.30873340437971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>85.09628919973954</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124579</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2539,7 +2539,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704453</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797738</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704453</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279767</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433877</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572831</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.7981506918327</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>434.8356337514209</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>76.56993514467038</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>76.56993514467038</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>76.56993514467038</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>76.56993514467038</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1580.537322731766</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.397990755954</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="C4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="D4" t="n">
-        <v>195.2500315327868</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="E4" t="n">
-        <v>195.2500315327868</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="F4" t="n">
-        <v>195.2500315327868</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>195.2500315327868</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="U4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="V4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="W4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="X4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.2500315327868</v>
+        <v>2330.851629064399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.829108994408</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.829108994408</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.829108994408</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>787.0408563961635</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>780.09535564696</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.428949058529</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>494.9102127870964</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.9102127870964</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2112.324418312743</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.361901372331</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1743.361901372331</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>83.65211659534967</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2628.734306600802</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,31 +5109,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.2108419093685</v>
+        <v>709.4168978689389</v>
       </c>
       <c r="C13" t="n">
-        <v>704.2840989361212</v>
+        <v>540.480714941032</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286963</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463032</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5209,40 +5209,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862233</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862233</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862233</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987877</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V13" t="n">
-        <v>1577.410141987877</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W13" t="n">
-        <v>1287.992971950916</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.003421052899</v>
+        <v>1111.857941842709</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.2108419093685</v>
+        <v>891.0653626991786</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001586</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>901.0652231938168</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.099436442225</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,19 +5385,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586945</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1544.967710630359</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="W16" t="n">
-        <v>861.192441000242</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X16" t="n">
-        <v>633.2028901022246</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.4103109586945</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888351</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5540,19 +5540,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.8867116300491</v>
+        <v>822.6328654632896</v>
       </c>
       <c r="C19" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X19" t="n">
-        <v>413.6792907735792</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.8867116300491</v>
+        <v>931.4530568143261</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1088.893283004706</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5944,16 +5944,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X22" t="n">
-        <v>874.540472347267</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.7478932037369</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.363334276588</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809181</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C25" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G25" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H25" t="n">
-        <v>145.437078681976</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6166,13 +6166,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R25" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T25" t="n">
         <v>1967.452490122057</v>
@@ -6181,7 +6181,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W25" t="n">
         <v>1276.596863849073</v>
@@ -6190,7 +6190,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>1923.729615463053</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H28" t="n">
         <v>145.4370786819758</v>
@@ -6385,10 +6385,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,16 +6418,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422545</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649191</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986037</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902953</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,16 +6655,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>836.0059675195635</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1287.040180767972</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430888</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516044</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
@@ -6889,10 +6889,10 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849072</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D37" t="n">
         <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499225</v>
@@ -7126,7 +7126,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
@@ -7151,49 +7151,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.748013620957</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N38" t="n">
-        <v>3348.500285847604</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O38" t="n">
-        <v>3851.472756726941</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430891</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7418,16 +7418,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2151.197749519703</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3130.95002174635</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123958</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829559</v>
@@ -7840,7 +7840,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>20.70318561719182</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>116.5656919961592</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>248.8400772687169</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>19.79750571619286</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>146.0713065388581</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>195.2514630883927</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>219.9458872952496</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>411.0304280898984</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>161.0524397463282</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>60.66917680434142</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>60.66917680434028</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>366.3237340265142</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.5220889732943</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22705,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.27690962649703</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>74.54615707381807</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.66934555511301</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.26178070012841</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>157.6510182875013</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>238.923092290274</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>72.09999074441112</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>21.59472895491496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.52324677755759</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>59.65872571458124</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34362.7578359307</v>
+        <v>34362.75783593069</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39708.17868869834</v>
+        <v>39708.17868869831</v>
       </c>
       <c r="F2" t="n">
+        <v>39708.17868869829</v>
+      </c>
+      <c r="G2" t="n">
         <v>39708.17868869831</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39708.17868869832</v>
       </c>
       <c r="H2" t="n">
         <v>39708.17868869831</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321409</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106987.6929218026</v>
+        <v>106987.6929218025</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="J4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
@@ -26451,13 +26451,13 @@
         <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745451.8923638257</v>
+        <v>-745786.3588966898</v>
       </c>
       <c r="C6" t="n">
         <v>-225155.6764273233</v>
@@ -26528,40 +26528,40 @@
         <v>-225155.6764273233</v>
       </c>
       <c r="E6" t="n">
-        <v>-802201.2458776118</v>
+        <v>-802268.4413678377</v>
       </c>
       <c r="F6" t="n">
-        <v>-74823.83188420524</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="G6" t="n">
-        <v>-74823.83188420527</v>
+        <v>-74891.02737443101</v>
       </c>
       <c r="H6" t="n">
-        <v>-74823.83188420528</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="I6" t="n">
         <v>-130466.3451131709</v>
       </c>
       <c r="J6" t="n">
-        <v>-269309.4550108898</v>
+        <v>-269309.4550108899</v>
       </c>
       <c r="K6" t="n">
-        <v>-92886.23581829687</v>
+        <v>-92886.2358182969</v>
       </c>
       <c r="L6" t="n">
-        <v>-92886.23581829695</v>
+        <v>-92886.2358182969</v>
       </c>
       <c r="M6" t="n">
         <v>-222528.5506572417</v>
       </c>
       <c r="N6" t="n">
-        <v>-130466.3451131709</v>
+        <v>-130466.345113171</v>
       </c>
       <c r="O6" t="n">
-        <v>-92886.23581829687</v>
+        <v>-92886.2358182969</v>
       </c>
       <c r="P6" t="n">
-        <v>-92886.23581829682</v>
+        <v>-92886.23581829692</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859255</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.64470168436316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>145.3977548550151</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>162.6054063547961</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>18.81609269682264</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>55.39529053683307</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>16.6375473211412</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.919944487539453</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>251.4743219618637</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>126.7588454145598</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.602510716717613e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026427</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>573.0050210301031</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35577,16 +35577,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675417</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>453.7569785515595</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>756.8930781569359</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>475.387620108525</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>544.8332927582297</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>703.3044639766117</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>557.1371738506501</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37306,13 +37306,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
@@ -37321,7 +37321,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822307</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>559.8144259657</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37713,7 +37713,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37786,19 +37786,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>599.5902926345682</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>599.5902926345673</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597601</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
